--- a/doc/Frc2018ElectricalConnectors.xlsx
+++ b/doc/Frc2018ElectricalConnectors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,16 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Connectors Checklist" sheetId="4" r:id="rId1"/>
-    <sheet name="Anderson Connectors" sheetId="3" r:id="rId2"/>
-    <sheet name="Motor Controls" sheetId="1" r:id="rId3"/>
-    <sheet name="Pneumatic Controls" sheetId="2" r:id="rId4"/>
+    <sheet name="Sensors" sheetId="5" r:id="rId2"/>
+    <sheet name="Anderson Connectors" sheetId="3" r:id="rId3"/>
+    <sheet name="Motor Controls" sheetId="1" r:id="rId4"/>
+    <sheet name="Pneumatic Controls" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="116">
   <si>
     <t>Color</t>
   </si>
@@ -90,9 +91,6 @@
     <t>Right Anderson Powerpole Connectors</t>
   </si>
   <si>
-    <t>Camera Ring Light Power</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
@@ -102,12 +100,6 @@
     <t>RSL</t>
   </si>
   <si>
-    <t>RoboRIO Relay 1</t>
-  </si>
-  <si>
-    <t>RoboRIO RSL</t>
-  </si>
-  <si>
     <t>Controller</t>
   </si>
   <si>
@@ -213,9 +205,6 @@
     <t>Right Rear Wheel Sensors (CPC11-8: Blue)</t>
   </si>
   <si>
-    <t>Elevator (CPC11-8: Yellow)</t>
-  </si>
-  <si>
     <t>Left Front Wheel Motor</t>
   </si>
   <si>
@@ -249,45 +238,15 @@
     <t>Anderson</t>
   </si>
   <si>
-    <t>JST SM</t>
-  </si>
-  <si>
     <t>PCM Power</t>
   </si>
   <si>
-    <t>Right Anderson Block (Yellow/Blue/Gray/Orange/Red/Brown)</t>
-  </si>
-  <si>
-    <t>CAN Bus for PCM (JST SM)</t>
-  </si>
-  <si>
-    <t>Pixy Camera (SPI on RoboRIO)</t>
-  </si>
-  <si>
-    <t>Cube Pickup Sensor (CPC11-8: White)</t>
-  </si>
-  <si>
-    <t>3 Ultrasonic sensors (front, left and right)</t>
-  </si>
-  <si>
     <t>USB (RoboRIO)</t>
   </si>
   <si>
-    <t>Left Anderson Block (Orange/Green/Purple/White/Yellow/Blue)</t>
-  </si>
-  <si>
     <t>Radio Power</t>
   </si>
   <si>
-    <t>VRM 12V</t>
-  </si>
-  <si>
-    <t>Vision Target LED (Blue)</t>
-  </si>
-  <si>
-    <t>Cube Detected LED (Red)</t>
-  </si>
-  <si>
     <t>Cube Pickup Claw extend</t>
   </si>
   <si>
@@ -306,19 +265,112 @@
     <t>Right Cube Flipper retract</t>
   </si>
   <si>
-    <t>CAN (HI/LO)</t>
-  </si>
-  <si>
-    <t>Yellow/Green</t>
-  </si>
-  <si>
-    <t>Cube Detector</t>
-  </si>
-  <si>
-    <t>Cube Detector (Gray)</t>
-  </si>
-  <si>
-    <t>PDP (12V/5A)</t>
+    <t>CANTalon 12</t>
+  </si>
+  <si>
+    <t>Left Cube Flipper retract</t>
+  </si>
+  <si>
+    <t>Right Cube Flipper extend</t>
+  </si>
+  <si>
+    <t>CAN High</t>
+  </si>
+  <si>
+    <t>CAN Low</t>
+  </si>
+  <si>
+    <t>Pressure Sensor</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Ring Light Power</t>
+  </si>
+  <si>
+    <t>RoboRio RSL</t>
+  </si>
+  <si>
+    <t>RoboRio Relay 0</t>
+  </si>
+  <si>
+    <t>VRM 12V/2A</t>
+  </si>
+  <si>
+    <t>RoboRio PCM Power</t>
+  </si>
+  <si>
+    <t>CPC11-8</t>
+  </si>
+  <si>
+    <t>Compressor Power</t>
+  </si>
+  <si>
+    <t>Left Anderson Block (Orange/Green/Purple/White/Yellow)</t>
+  </si>
+  <si>
+    <t>Right Anderson Block (Yellow/Blue/Gray/Orange/Green/Purple/White/Red/Pink)</t>
+  </si>
+  <si>
+    <t>Left/Right/Front Ultrasonic Sensors (CPC11-8: Purple)</t>
+  </si>
+  <si>
+    <t>Cube Detector (CPC11-8: Red)</t>
+  </si>
+  <si>
+    <t>Pneumatic (CPC11-8: Brown)</t>
+  </si>
+  <si>
+    <t>Lidar Sensor (I2C on RoboRIO)</t>
+  </si>
+  <si>
+    <t>Pixy Camera (I2C on NavX)</t>
+  </si>
+  <si>
+    <t>Elevator (CPC11-8: White)</t>
+  </si>
+  <si>
+    <t>unused</t>
+  </si>
+  <si>
+    <t>Right Sonar Ping</t>
+  </si>
+  <si>
+    <t>Left Sonar Ping</t>
+  </si>
+  <si>
+    <t>Front Sonar Ping</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>UltraSonic Sensors</t>
+  </si>
+  <si>
+    <t>Optical Range Sensor</t>
+  </si>
+  <si>
+    <t>Front Sonar Signal</t>
+  </si>
+  <si>
+    <t>Right Sonar Signal</t>
+  </si>
+  <si>
+    <t>Left Sonar Signal</t>
   </si>
 </sst>
 </file>
@@ -342,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +425,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -386,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,6 +497,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,7 +895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,72 +907,72 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>97</v>
+      <c r="B7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>82</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -895,6 +982,327 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -904,7 +1312,7 @@
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -920,7 +1328,7 @@
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -931,7 +1339,7 @@
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -942,7 +1350,7 @@
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -953,138 +1361,141 @@
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
@@ -1098,12 +1509,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1126,7 +1537,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1135,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -1152,7 +1563,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
@@ -1161,7 +1572,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -1170,18 +1581,18 @@
         <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -1190,7 +1601,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6">
         <v>2</v>
@@ -1199,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
@@ -1210,7 +1621,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
@@ -1219,7 +1630,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -1228,18 +1639,18 @@
         <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
@@ -1248,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
@@ -1257,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>6</v>
@@ -1268,7 +1679,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
@@ -1277,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="6">
         <v>5</v>
@@ -1288,7 +1699,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -1297,7 +1708,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="6">
         <v>6</v>
@@ -1308,7 +1719,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
@@ -1317,7 +1728,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6">
         <v>7</v>
@@ -1328,7 +1739,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>15</v>
@@ -1337,7 +1748,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6">
         <v>8</v>
@@ -1351,7 +1762,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
@@ -1360,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -1371,7 +1782,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>18</v>
@@ -1380,7 +1791,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
@@ -1391,7 +1802,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>18</v>
@@ -1400,7 +1811,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" s="6">
         <v>3</v>
@@ -1411,7 +1822,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>18</v>
@@ -1420,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" s="6">
         <v>4</v>
@@ -1431,7 +1842,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>18</v>
@@ -1440,7 +1851,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="6">
         <v>5</v>
@@ -1451,7 +1862,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>18</v>
@@ -1460,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="6">
         <v>6</v>
@@ -1471,7 +1882,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>18</v>
@@ -1480,7 +1891,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="6">
         <v>7</v>
@@ -1491,7 +1902,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>18</v>
@@ -1500,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" s="6">
         <v>8</v>
@@ -1514,7 +1925,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>16</v>
@@ -1523,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -1534,7 +1945,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>16</v>
@@ -1543,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21" s="6">
         <v>2</v>
@@ -1554,7 +1965,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>16</v>
@@ -1563,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" s="6">
         <v>3</v>
@@ -1574,7 +1985,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>16</v>
@@ -1583,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E23" s="6">
         <v>4</v>
@@ -1594,7 +2005,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>16</v>
@@ -1603,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E24" s="6">
         <v>5</v>
@@ -1614,7 +2025,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>16</v>
@@ -1623,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E25" s="6">
         <v>6</v>
@@ -1634,7 +2045,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>16</v>
@@ -1643,7 +2054,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E26" s="6">
         <v>7</v>
@@ -1654,7 +2065,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>16</v>
@@ -1663,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E27" s="6">
         <v>8</v>
@@ -1677,16 +2088,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
@@ -1697,16 +2108,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
@@ -1717,16 +2128,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="6">
         <v>3</v>
@@ -1737,16 +2148,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E32" s="6">
         <v>4</v>
@@ -1757,16 +2168,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E33" s="6">
         <v>5</v>
@@ -1777,16 +2188,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E34" s="6">
         <v>6</v>
@@ -1797,16 +2208,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E35" s="6">
         <v>7</v>
@@ -1817,16 +2228,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E36" s="6">
         <v>8</v>
@@ -1840,7 +2251,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>17</v>
@@ -1849,7 +2260,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -1860,7 +2271,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>17</v>
@@ -1869,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E39" s="6">
         <v>2</v>
@@ -1880,7 +2291,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>17</v>
@@ -1889,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E40" s="6">
         <v>3</v>
@@ -1900,7 +2311,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>17</v>
@@ -1909,7 +2320,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E41" s="6">
         <v>4</v>
@@ -1920,7 +2331,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>17</v>
@@ -1929,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E42" s="6">
         <v>5</v>
@@ -1940,7 +2351,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>17</v>
@@ -1949,7 +2360,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E43" s="6">
         <v>6</v>
@@ -1960,7 +2371,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>17</v>
@@ -1969,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E44" s="6">
         <v>7</v>
@@ -1980,7 +2391,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>17</v>
@@ -1989,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E45" s="6">
         <v>8</v>
@@ -2003,7 +2414,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>20</v>
@@ -2012,7 +2423,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
@@ -2023,7 +2434,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>20</v>
@@ -2032,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E48" s="6">
         <v>2</v>
@@ -2043,7 +2454,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>20</v>
@@ -2052,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E49" s="6">
         <v>3</v>
@@ -2063,7 +2474,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>20</v>
@@ -2072,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E50" s="6">
         <v>4</v>
@@ -2083,7 +2494,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>20</v>
@@ -2092,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E51" s="6">
         <v>5</v>
@@ -2103,7 +2514,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>20</v>
@@ -2112,7 +2523,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E52" s="6">
         <v>6</v>
@@ -2123,7 +2534,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>20</v>
@@ -2132,7 +2543,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E53" s="6">
         <v>7</v>
@@ -2143,7 +2554,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>20</v>
@@ -2152,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E54" s="6">
         <v>8</v>
@@ -2166,16 +2577,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
@@ -2186,16 +2597,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E57" s="6">
         <v>2</v>
@@ -2206,16 +2617,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E58" s="6">
         <v>3</v>
@@ -2226,16 +2637,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E59" s="6">
         <v>4</v>
@@ -2246,16 +2657,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E60" s="6">
         <v>5</v>
@@ -2266,16 +2677,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E61" s="6">
         <v>6</v>
@@ -2286,16 +2697,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E62" s="6">
         <v>7</v>
@@ -2306,16 +2717,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E63" s="6">
         <v>8</v>
@@ -2326,16 +2737,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
@@ -2346,16 +2757,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E66" s="6">
         <v>2</v>
@@ -2366,16 +2777,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E67" s="6">
         <v>3</v>
@@ -2386,16 +2797,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E68" s="6">
         <v>4</v>
@@ -2406,16 +2817,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E69" s="6">
         <v>5</v>
@@ -2426,16 +2837,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E70" s="6">
         <v>6</v>
@@ -2446,16 +2857,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E71" s="6">
         <v>7</v>
@@ -2466,16 +2877,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E72" s="6">
         <v>8</v>
@@ -2486,16 +2897,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E74" s="6">
         <v>1</v>
@@ -2506,16 +2917,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E75" s="6">
         <v>2</v>
@@ -2526,16 +2937,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E76" s="6">
         <v>3</v>
@@ -2546,16 +2957,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E77" s="6">
         <v>4</v>
@@ -2566,16 +2977,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E78" s="6">
         <v>5</v>
@@ -2586,16 +2997,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E79" s="6">
         <v>6</v>
@@ -2606,16 +3017,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E80" s="6">
         <v>7</v>
@@ -2626,21 +3037,181 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E81" s="6">
         <v>8</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="6">
+        <v>3</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="6">
+        <v>4</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="6">
+        <v>5</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="6">
+        <v>6</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="6">
+        <v>7</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" s="6">
+        <v>8</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2651,9 +3222,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2665,146 +3236,370 @@
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:5" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="E11" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="24"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
